--- a/SCRUM/SCRUM_TEAM_C.xlsx
+++ b/SCRUM/SCRUM_TEAM_C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -1061,6 +1061,9 @@
       <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="E4" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">

--- a/SCRUM/SCRUM_TEAM_C.xlsx
+++ b/SCRUM/SCRUM_TEAM_C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>4 Gewinnt</t>
+  </si>
+  <si>
+    <t>4Gewinnt</t>
+  </si>
+  <si>
+    <t>4 Gewinnt Interfaces</t>
+  </si>
+  <si>
+    <t>4 Gewinnt Oberfläche</t>
+  </si>
+  <si>
+    <t>180min</t>
+  </si>
+  <si>
+    <t>4 Gewinnt Regeln</t>
+  </si>
+  <si>
+    <t>4 Gewinnt Spieler (Mensch + evtl. Computer)</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,6 +1082,9 @@
       <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="E4" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
@@ -1092,6 +1116,9 @@
       <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1106,36 +1133,85 @@
       <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="E7" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
